--- a/reports/NVDA_Returns_Analysis.xlsx
+++ b/reports/NVDA_Returns_Analysis.xlsx
@@ -18,8 +18,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -42,7 +64,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return (Simple %)</t>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
   <si>
     <t>Metric</t>
@@ -108,6 +133,9 @@
     <t>Outliers (IQR rule)</t>
   </si>
   <si>
+    <t>Class Lower</t>
+  </si>
+  <si>
     <t>Class Interval</t>
   </si>
   <si>
@@ -117,69 +145,33 @@
     <t>Relative Frequency</t>
   </si>
   <si>
-    <t>-50% to -40%</t>
+    <t>Bin width</t>
   </si>
   <si>
-    <t>-40% to -30%</t>
+    <t>Lower Edge</t>
   </si>
   <si>
-    <t>-30% to -20%</t>
+    <t>Upper Edge</t>
   </si>
   <si>
-    <t>-20% to -10%</t>
+    <t>Bin Count</t>
   </si>
   <si>
-    <t>-10% to -0%</t>
+    <t>Conclusion:</t>
   </si>
   <si>
-    <t>-0% to 10%</t>
-  </si>
-  <si>
-    <t>10% to 20%</t>
-  </si>
-  <si>
-    <t>20% to 30%</t>
-  </si>
-  <si>
-    <t>30% to 40%</t>
-  </si>
-  <si>
-    <t>40% to 50%</t>
-  </si>
-  <si>
-    <t>50% to 60%</t>
-  </si>
-  <si>
-    <t>60% to 70%</t>
-  </si>
-  <si>
-    <t>70% to 80%</t>
-  </si>
-  <si>
-    <t>80% to 90%</t>
-  </si>
-  <si>
-    <t>90% to 100%</t>
-  </si>
-  <si>
-    <t>Sample size: 321 months.
-Mean monthly return: 4.13%; Std Dev (monthly): 17.48%.
-Min: -48.61%, 20th pct: -8.67%, Median: 3.28%, 60th pct: 6.58%, 90th pct: 24.24%, Max: 83.19%.
-IQR: 17.85%; IQR outlier bounds: [-31.93%, 39.47%]. Outliers detected: 16.
-Distribution insight: Wide spread and fat tails are typical for equities; large positive outliers drive the right tail, while drawdowns produce left-tail risk.
-Conclusion:
-Based on historical monthly returns, the stock exhibits high volatility but strong upside over time. A data-driven approach suggests it can be part of a growth portfolio, provided risk controls (position sizing, rebalancing) are used.
-In light of Ecclesiastes 11:2 (“Invest in seven ventures, yes, in eight; for you do not know what disaster may come upon the land”), this supports a diversified approach: consider investing in this stock as one of multiple holdings, not a concentrated bet.</t>
+    <t>Based on historical monthly returns, the stock exhibits high volatility but strong upside over time. Consider it as part of a diversified, risk-managed portfolio (position sizing, rebalancing). Ecclesiastes 11:2 encourages diversification; investing in this stock as one of multiple holdings supports that worldview.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -233,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -241,7 +233,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,107 +282,24 @@
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Frequency!$A$2:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
+            <c:numRef>
+              <c:f>Frequency!$B$2#</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-50% to -40%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-40% to -30%</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-30% to -20%</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-20% to -10%</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-10% to -0%</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0% to 10%</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10% to 20%</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20% to 30%</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30% to 40%</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40% to 50%</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50% to 60%</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60% to 70%</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70% to 80%</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80% to 90%</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90% to 100%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Frequency!$B$2:$B$16</c:f>
+              <c:f>Frequency!$C$2#</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -422,6 +333,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -514,6 +426,17 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tReturns" displayName="tReturns" ref="A1:B322" totalsRowShown="0">
+  <autoFilter ref="A1:B322"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,7 +734,7 @@
     <col min="2" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -830,11 +753,8 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>36191</v>
       </c>
@@ -854,7 +774,7 @@
         <v>1170486322</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>36219</v>
       </c>
@@ -873,11 +793,8 @@
       <c r="F3">
         <v>865490168</v>
       </c>
-      <c r="G3">
-        <v>0.1582596598922983</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>36250</v>
       </c>
@@ -896,11 +813,8 @@
       <c r="F4">
         <v>558492404</v>
       </c>
-      <c r="G4">
-        <v>-0.03840489569481975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>36280</v>
       </c>
@@ -919,11 +833,8 @@
       <c r="F5">
         <v>487666494</v>
       </c>
-      <c r="G5">
-        <v>-0.1361996243042441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>36311</v>
       </c>
@@ -942,11 +853,8 @@
       <c r="F6">
         <v>682021421</v>
       </c>
-      <c r="G6">
-        <v>-0.06600030410920399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>36341</v>
       </c>
@@ -965,11 +873,8 @@
       <c r="F7">
         <v>652320126</v>
       </c>
-      <c r="G7">
-        <v>0.1198357261775314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>36372</v>
       </c>
@@ -988,11 +893,8 @@
       <c r="F8">
         <v>1033532155</v>
       </c>
-      <c r="G8">
-        <v>0.05638469746301777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>36403</v>
       </c>
@@ -1011,11 +913,8 @@
       <c r="F9">
         <v>2159964185</v>
       </c>
-      <c r="G9">
-        <v>0.3930588409417251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>36433</v>
       </c>
@@ -1034,11 +933,8 @@
       <c r="F10">
         <v>1914069367</v>
       </c>
-      <c r="G10">
-        <v>-0.3162447646687133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>36464</v>
       </c>
@@ -1057,11 +953,8 @@
       <c r="F11">
         <v>2175389847</v>
       </c>
-      <c r="G11">
-        <v>0.1498388917057853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>36494</v>
       </c>
@@ -1080,11 +973,8 @@
       <c r="F12">
         <v>3603088225</v>
       </c>
-      <c r="G12">
-        <v>0.5706733048838313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>36525</v>
       </c>
@@ -1103,11 +993,8 @@
       <c r="F13">
         <v>1348210630</v>
       </c>
-      <c r="G13">
-        <v>0.3529773135499841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>36556</v>
       </c>
@@ -1126,11 +1013,8 @@
       <c r="F14">
         <v>1354726262</v>
       </c>
-      <c r="G14">
-        <v>-0.209644328568512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>36585</v>
       </c>
@@ -1149,11 +1033,8 @@
       <c r="F15">
         <v>2504160212</v>
       </c>
-      <c r="G15">
-        <v>0.7251610571901235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>36616</v>
       </c>
@@ -1172,11 +1053,8 @@
       <c r="F16">
         <v>4791709456</v>
       </c>
-      <c r="G16">
-        <v>0.32067289597277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>36646</v>
       </c>
@@ -1195,11 +1073,8 @@
       <c r="F17">
         <v>1773020096</v>
       </c>
-      <c r="G17">
-        <v>0.05541168453007872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>36677</v>
       </c>
@@ -1218,11 +1093,8 @@
       <c r="F18">
         <v>2378118966</v>
       </c>
-      <c r="G18">
-        <v>0.2798877631285441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>36707</v>
       </c>
@@ -1241,11 +1113,8 @@
       <c r="F19">
         <v>4602889773</v>
       </c>
-      <c r="G19">
-        <v>0.1136749314327123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>36738</v>
       </c>
@@ -1264,11 +1133,8 @@
       <c r="F20">
         <v>3977548595</v>
       </c>
-      <c r="G20">
-        <v>-0.05565050510874359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>36769</v>
       </c>
@@ -1287,11 +1153,8 @@
       <c r="F21">
         <v>3322389880</v>
       </c>
-      <c r="G21">
-        <v>0.3226300227643408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>36799</v>
       </c>
@@ -1310,11 +1173,8 @@
       <c r="F22">
         <v>3206986098</v>
       </c>
-      <c r="G22">
-        <v>0.03180156089776354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>36830</v>
       </c>
@@ -1333,11 +1193,8 @@
       <c r="F23">
         <v>4829090614</v>
       </c>
-      <c r="G23">
-        <v>-0.240841460764639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>36860</v>
       </c>
@@ -1356,11 +1213,8 @@
       <c r="F24">
         <v>4737631977</v>
       </c>
-      <c r="G24">
-        <v>-0.3485656557152779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>36891</v>
       </c>
@@ -1379,11 +1233,8 @@
       <c r="F25">
         <v>7885632999</v>
       </c>
-      <c r="G25">
-        <v>-0.1910983600201606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>36922</v>
       </c>
@@ -1402,11 +1253,8 @@
       <c r="F26">
         <v>5855859450</v>
       </c>
-      <c r="G26">
-        <v>0.5769986579754602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>36950</v>
       </c>
@@ -1425,11 +1273,8 @@
       <c r="F27">
         <v>6355196741</v>
       </c>
-      <c r="G27">
-        <v>-0.1347465998024466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>36981</v>
       </c>
@@ -1448,11 +1293,8 @@
       <c r="F28">
         <v>15787059965</v>
       </c>
-      <c r="G28">
-        <v>0.4522170313908698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>37011</v>
       </c>
@@ -1471,11 +1313,8 @@
       <c r="F29">
         <v>16958579742</v>
       </c>
-      <c r="G29">
-        <v>0.2827029053571934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>37042</v>
       </c>
@@ -1494,11 +1333,8 @@
       <c r="F30">
         <v>15287748375</v>
       </c>
-      <c r="G30">
-        <v>0.02808105950607498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>37072</v>
       </c>
@@ -1517,11 +1353,8 @@
       <c r="F31">
         <v>10989083013</v>
       </c>
-      <c r="G31">
-        <v>0.08355012365454972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>37103</v>
       </c>
@@ -1540,11 +1373,8 @@
       <c r="F32">
         <v>11778369542</v>
       </c>
-      <c r="G32">
-        <v>-0.1280060487738819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>37134</v>
       </c>
@@ -1563,11 +1393,8 @@
       <c r="F33">
         <v>16280993529</v>
       </c>
-      <c r="G33">
-        <v>0.0473210819205383</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>37164</v>
       </c>
@@ -1586,11 +1413,8 @@
       <c r="F34">
         <v>17605678800</v>
       </c>
-      <c r="G34">
-        <v>-0.3512384694753882</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>37195</v>
       </c>
@@ -1609,11 +1433,8 @@
       <c r="F35">
         <v>28760697833</v>
       </c>
-      <c r="G35">
-        <v>0.5598977181821645</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>37225</v>
       </c>
@@ -1632,11 +1453,8 @@
       <c r="F36">
         <v>31331117203</v>
       </c>
-      <c r="G36">
-        <v>0.2746595602443291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>37256</v>
       </c>
@@ -1655,11 +1473,8 @@
       <c r="F37">
         <v>19243407330</v>
       </c>
-      <c r="G37">
-        <v>0.2246106612830994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37287</v>
       </c>
@@ -1678,11 +1493,8 @@
       <c r="F38">
         <v>25720746917</v>
       </c>
-      <c r="G38">
-        <v>-0.01772929675353996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37315</v>
       </c>
@@ -1701,11 +1513,8 @@
       <c r="F39">
         <v>33796063628</v>
       </c>
-      <c r="G39">
-        <v>-0.2240752870348066</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>37346</v>
       </c>
@@ -1724,11 +1533,8 @@
       <c r="F40">
         <v>29733872161</v>
       </c>
-      <c r="G40">
-        <v>-0.1299250782572997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>37376</v>
       </c>
@@ -1747,11 +1553,8 @@
       <c r="F41">
         <v>34999117303</v>
       </c>
-      <c r="G41">
-        <v>-0.2157721990073812</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>37407</v>
       </c>
@@ -1770,11 +1573,8 @@
       <c r="F42">
         <v>30312815517</v>
       </c>
-      <c r="G42">
-        <v>-0.03870885257244283</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>37437</v>
       </c>
@@ -1793,11 +1593,8 @@
       <c r="F43">
         <v>31445055620</v>
       </c>
-      <c r="G43">
-        <v>-0.4860624315443592</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>37468</v>
       </c>
@@ -1816,11 +1613,8 @@
       <c r="F44">
         <v>35415198751</v>
       </c>
-      <c r="G44">
-        <v>-0.3559768006515303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>37499</v>
       </c>
@@ -1839,11 +1633,8 @@
       <c r="F45">
         <v>26213843234</v>
       </c>
-      <c r="G45">
-        <v>-0.08673536318586705</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>37529</v>
       </c>
@@ -1862,11 +1653,8 @@
       <c r="F46">
         <v>19438690605</v>
       </c>
-      <c r="G46">
-        <v>-0.1542833553543399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>37560</v>
       </c>
@@ -1885,11 +1673,8 @@
       <c r="F47">
         <v>20024032544</v>
       </c>
-      <c r="G47">
-        <v>0.3926628667610268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>37590</v>
       </c>
@@ -1908,11 +1693,8 @@
       <c r="F48">
         <v>37276420440</v>
       </c>
-      <c r="G48">
-        <v>0.4383831058957963</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>37621</v>
       </c>
@@ -1931,11 +1713,8 @@
       <c r="F49">
         <v>23886204147</v>
       </c>
-      <c r="G49">
-        <v>-0.3275022343082811</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>37652</v>
       </c>
@@ -1954,11 +1733,8 @@
       <c r="F50">
         <v>25655272401</v>
       </c>
-      <c r="G50">
-        <v>-0.1040042617621568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>37680</v>
       </c>
@@ -1977,11 +1753,8 @@
       <c r="F51">
         <v>23163385108</v>
       </c>
-      <c r="G51">
-        <v>0.2236699487717777</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>37711</v>
       </c>
@@ -2000,11 +1773,8 @@
       <c r="F52">
         <v>19629957894</v>
       </c>
-      <c r="G52">
-        <v>0.01903426955874021</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>37741</v>
       </c>
@@ -2023,11 +1793,8 @@
       <c r="F53">
         <v>13753748656</v>
       </c>
-      <c r="G53">
-        <v>0.1095308001366364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>37772</v>
       </c>
@@ -2046,11 +1813,8 @@
       <c r="F54">
         <v>40855276969</v>
       </c>
-      <c r="G54">
-        <v>0.8319451698324125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>37802</v>
       </c>
@@ -2069,11 +1833,8 @@
       <c r="F55">
         <v>25330864806</v>
       </c>
-      <c r="G55">
-        <v>-0.1238564919247949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>37833</v>
       </c>
@@ -2092,11 +1853,8 @@
       <c r="F56">
         <v>21708674813</v>
       </c>
-      <c r="G56">
-        <v>-0.1674773077581778</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>37864</v>
       </c>
@@ -2115,11 +1873,8 @@
       <c r="F57">
         <v>23732642067</v>
       </c>
-      <c r="G57">
-        <v>-0.04710867910555216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>37894</v>
       </c>
@@ -2138,11 +1893,8 @@
       <c r="F58">
         <v>25733406133</v>
       </c>
-      <c r="G58">
-        <v>-0.1221548181890144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>37925</v>
       </c>
@@ -2161,11 +1913,8 @@
       <c r="F59">
         <v>15041060963</v>
       </c>
-      <c r="G59">
-        <v>0.1070597107912254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>37955</v>
       </c>
@@ -2184,11 +1933,8 @@
       <c r="F60">
         <v>19525877959</v>
       </c>
-      <c r="G60">
-        <v>0.2019282033054912</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>37986</v>
       </c>
@@ -2207,11 +1953,8 @@
       <c r="F61">
         <v>13464523232</v>
       </c>
-      <c r="G61">
-        <v>0.09189985090994224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>38017</v>
       </c>
@@ -2230,11 +1973,8 @@
       <c r="F62">
         <v>13521828222</v>
       </c>
-      <c r="G62">
-        <v>-0.04012187209072704</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>38046</v>
       </c>
@@ -2253,11 +1993,8 @@
       <c r="F63">
         <v>12938980693</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>38077</v>
       </c>
@@ -2276,11 +2013,8 @@
       <c r="F64">
         <v>14378429220</v>
       </c>
-      <c r="G64">
-        <v>0.1860055018692248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>38107</v>
       </c>
@@ -2299,11 +2033,8 @@
       <c r="F65">
         <v>13468564456</v>
       </c>
-      <c r="G65">
-        <v>-0.2227409698267317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>38138</v>
       </c>
@@ -2322,11 +2053,8 @@
       <c r="F66">
         <v>11219844817</v>
       </c>
-      <c r="G66">
-        <v>0.1433244487521201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>38168</v>
       </c>
@@ -2345,11 +2073,8 @@
       <c r="F67">
         <v>10387638753</v>
       </c>
-      <c r="G67">
-        <v>-0.127978896058627</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>38199</v>
       </c>
@@ -2368,11 +2093,8 @@
       <c r="F68">
         <v>12807157004</v>
       </c>
-      <c r="G68">
-        <v>-0.246245746885313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>38230</v>
       </c>
@@ -2391,11 +2113,8 @@
       <c r="F69">
         <v>24671847748</v>
       </c>
-      <c r="G69">
-        <v>-0.1926629558606412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>38260</v>
       </c>
@@ -2414,11 +2133,8 @@
       <c r="F70">
         <v>17047669270</v>
       </c>
-      <c r="G70">
-        <v>0.1663525942243602</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>38291</v>
       </c>
@@ -2437,11 +2153,8 @@
       <c r="F71">
         <v>17833502187</v>
       </c>
-      <c r="G71">
-        <v>-0.004235149942329985</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>38321</v>
       </c>
@@ -2460,11 +2173,8 @@
       <c r="F72">
         <v>20138788163</v>
       </c>
-      <c r="G72">
-        <v>0.3237380775704486</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>38352</v>
       </c>
@@ -2483,11 +2193,8 @@
       <c r="F73">
         <v>19259423426</v>
       </c>
-      <c r="G73">
-        <v>0.2304468796357697</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>38383</v>
       </c>
@@ -2506,11 +2213,8 @@
       <c r="F74">
         <v>14969720278</v>
       </c>
-      <c r="G74">
-        <v>-0.02678467256696182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>38411</v>
       </c>
@@ -2529,11 +2233,8 @@
       <c r="F75">
         <v>19004139788</v>
       </c>
-      <c r="G75">
-        <v>0.264371753154079</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>38442</v>
       </c>
@@ -2552,11 +2253,8 @@
       <c r="F76">
         <v>16516452760</v>
       </c>
-      <c r="G76">
-        <v>-0.1800704352537476</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>38472</v>
       </c>
@@ -2575,11 +2273,8 @@
       <c r="F77">
         <v>10700668632</v>
       </c>
-      <c r="G77">
-        <v>-0.0771374134076368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>38503</v>
       </c>
@@ -2598,11 +2293,8 @@
       <c r="F78">
         <v>15581421097</v>
       </c>
-      <c r="G78">
-        <v>0.2352825347574439</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>38533</v>
       </c>
@@ -2621,11 +2313,8 @@
       <c r="F79">
         <v>17679109919</v>
       </c>
-      <c r="G79">
-        <v>-0.01321605054559694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>38564</v>
       </c>
@@ -2644,11 +2333,8 @@
       <c r="F80">
         <v>14854851183</v>
       </c>
-      <c r="G80">
-        <v>0.01226717575935576</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>38595</v>
       </c>
@@ -2667,11 +2353,8 @@
       <c r="F81">
         <v>15869312093</v>
       </c>
-      <c r="G81">
-        <v>0.1343336992422302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>38625</v>
       </c>
@@ -2690,11 +2373,8 @@
       <c r="F82">
         <v>12079172710</v>
       </c>
-      <c r="G82">
-        <v>0.1170610052436374</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>38656</v>
       </c>
@@ -2713,11 +2393,8 @@
       <c r="F83">
         <v>10225697165</v>
       </c>
-      <c r="G83">
-        <v>-0.02172660278060823</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>38686</v>
       </c>
@@ -2736,11 +2413,8 @@
       <c r="F84">
         <v>14342693165</v>
       </c>
-      <c r="G84">
-        <v>0.0777924286873477</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>38717</v>
       </c>
@@ -2759,11 +2433,8 @@
       <c r="F85">
         <v>8301764291</v>
       </c>
-      <c r="G85">
-        <v>0.01170926280508322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>38748</v>
       </c>
@@ -2782,11 +2453,8 @@
       <c r="F86">
         <v>10356045722</v>
       </c>
-      <c r="G86">
-        <v>0.2294570537222016</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>38776</v>
       </c>
@@ -2805,11 +2473,8 @@
       <c r="F87">
         <v>12881098681</v>
       </c>
-      <c r="G87">
-        <v>0.0479967874103735</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>38807</v>
       </c>
@@ -2828,11 +2493,8 @@
       <c r="F88">
         <v>17128666498</v>
       </c>
-      <c r="G88">
-        <v>0.2154316908330602</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>38837</v>
       </c>
@@ -2851,11 +2513,8 @@
       <c r="F89">
         <v>14551702998</v>
       </c>
-      <c r="G89">
-        <v>0.02036652898603708</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>38868</v>
       </c>
@@ -2874,11 +2533,8 @@
       <c r="F90">
         <v>15641438840</v>
       </c>
-      <c r="G90">
-        <v>-0.2134948941324503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>38898</v>
       </c>
@@ -2897,11 +2553,8 @@
       <c r="F91">
         <v>13376629125</v>
       </c>
-      <c r="G91">
-        <v>-0.07387976213181813</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>38929</v>
       </c>
@@ -2920,11 +2573,8 @@
       <c r="F92">
         <v>13197285757</v>
       </c>
-      <c r="G92">
-        <v>0.04026323716549762</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>38960</v>
       </c>
@@ -2943,11 +2593,8 @@
       <c r="F93">
         <v>17696577860</v>
       </c>
-      <c r="G93">
-        <v>0.3151052054616423</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>38990</v>
       </c>
@@ -2966,11 +2613,8 @@
       <c r="F94">
         <v>12534592360</v>
       </c>
-      <c r="G94">
-        <v>0.0165118238499129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>39021</v>
       </c>
@@ -2989,11 +2633,8 @@
       <c r="F95">
         <v>14792377777</v>
       </c>
-      <c r="G95">
-        <v>0.1783923929764999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>39051</v>
       </c>
@@ -3012,11 +2653,8 @@
       <c r="F96">
         <v>14645109237</v>
       </c>
-      <c r="G96">
-        <v>0.06058900874641049</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>39082</v>
       </c>
@@ -3035,11 +2673,8 @@
       <c r="F97">
         <v>10914741390</v>
       </c>
-      <c r="G97">
-        <v>0.0003890809730562328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>39113</v>
       </c>
@@ -3058,11 +2693,8 @@
       <c r="F98">
         <v>18606338294</v>
       </c>
-      <c r="G98">
-        <v>-0.1720182796934527</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>39141</v>
       </c>
@@ -3081,11 +2713,8 @@
       <c r="F99">
         <v>14675447291</v>
       </c>
-      <c r="G99">
-        <v>0.01172195271932219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>39172</v>
       </c>
@@ -3104,11 +2733,8 @@
       <c r="F100">
         <v>16193547273</v>
       </c>
-      <c r="G100">
-        <v>-0.07152173087231606</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>39202</v>
       </c>
@@ -3127,11 +2753,8 @@
       <c r="F101">
         <v>14742923589</v>
       </c>
-      <c r="G101">
-        <v>0.1428292177328434</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>39233</v>
       </c>
@@ -3150,11 +2773,8 @@
       <c r="F102">
         <v>13757453747</v>
       </c>
-      <c r="G102">
-        <v>0.0530241253803776</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>39263</v>
       </c>
@@ -3173,11 +2793,8 @@
       <c r="F103">
         <v>15765936688</v>
       </c>
-      <c r="G103">
-        <v>0.1926640853716122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>39294</v>
       </c>
@@ -3196,11 +2813,8 @@
       <c r="F104">
         <v>11357970371</v>
       </c>
-      <c r="G104">
-        <v>0.107861830436325</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>39325</v>
       </c>
@@ -3219,11 +2833,8 @@
       <c r="F105">
         <v>17062052381</v>
       </c>
-      <c r="G105">
-        <v>0.1179245417873367</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>39355</v>
       </c>
@@ -3242,11 +2853,8 @@
       <c r="F106">
         <v>10341631241</v>
       </c>
-      <c r="G106">
-        <v>0.06244901299385464</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>39386</v>
       </c>
@@ -3265,11 +2873,8 @@
       <c r="F107">
         <v>11622851448</v>
       </c>
-      <c r="G107">
-        <v>-0.0237477148300459</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>39416</v>
       </c>
@@ -3288,11 +2893,8 @@
       <c r="F108">
         <v>13103259980</v>
       </c>
-      <c r="G108">
-        <v>-0.1085581426311902</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>39447</v>
       </c>
@@ -3311,11 +2913,8 @@
       <c r="F109">
         <v>8257052645</v>
       </c>
-      <c r="G109">
-        <v>0.07876256724426423</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>39478</v>
       </c>
@@ -3334,11 +2933,8 @@
       <c r="F110">
         <v>16878071693</v>
       </c>
-      <c r="G110">
-        <v>-0.277187512819461</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>39507</v>
       </c>
@@ -3357,11 +2953,8 @@
       <c r="F111">
         <v>14840426934</v>
       </c>
-      <c r="G111">
-        <v>-0.1302000567536891</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>39538</v>
       </c>
@@ -3380,11 +2973,8 @@
       <c r="F112">
         <v>17374819744</v>
       </c>
-      <c r="G112">
-        <v>-0.07471840922622675</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>39568</v>
       </c>
@@ -3403,11 +2993,8 @@
       <c r="F113">
         <v>18099039056</v>
       </c>
-      <c r="G113">
-        <v>0.03826269767113866</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>39599</v>
       </c>
@@ -3426,11 +3013,8 @@
       <c r="F114">
         <v>21910227911</v>
       </c>
-      <c r="G114">
-        <v>0.2018626882904913</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>39629</v>
       </c>
@@ -3449,11 +3033,8 @@
       <c r="F115">
         <v>18709377020</v>
       </c>
-      <c r="G115">
-        <v>-0.241967385660852</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>39660</v>
       </c>
@@ -3472,11 +3053,8 @@
       <c r="F116">
         <v>24790167189</v>
       </c>
-      <c r="G116">
-        <v>-0.3889697814038332</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>39691</v>
       </c>
@@ -3495,11 +3073,8 @@
       <c r="F117">
         <v>20305243733</v>
       </c>
-      <c r="G117">
-        <v>0.1050793432922319</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>39721</v>
       </c>
@@ -3518,11 +3093,8 @@
       <c r="F118">
         <v>21480281172</v>
       </c>
-      <c r="G118">
-        <v>-0.1525852372704752</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>39752</v>
       </c>
@@ -3541,11 +3113,8 @@
       <c r="F119">
         <v>22279866383</v>
       </c>
-      <c r="G119">
-        <v>-0.1822501251969562</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>39782</v>
       </c>
@@ -3564,11 +3133,8 @@
       <c r="F120">
         <v>13297378653</v>
       </c>
-      <c r="G120">
-        <v>-0.1473039581777446</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>39813</v>
       </c>
@@ -3587,11 +3153,8 @@
       <c r="F121">
         <v>12732516610</v>
       </c>
-      <c r="G121">
-        <v>0.08046641442451419</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>39844</v>
       </c>
@@ -3610,11 +3173,8 @@
       <c r="F122">
         <v>16636881685</v>
       </c>
-      <c r="G122">
-        <v>-0.01496392769326371</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>39872</v>
       </c>
@@ -3633,11 +3193,8 @@
       <c r="F123">
         <v>17767112758</v>
       </c>
-      <c r="G123">
-        <v>0.04158528824420116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>39903</v>
       </c>
@@ -3656,11 +3213,8 @@
       <c r="F124">
         <v>24193003461</v>
       </c>
-      <c r="G124">
-        <v>0.1907024271026463</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>39933</v>
       </c>
@@ -3679,11 +3233,8 @@
       <c r="F125">
         <v>19216788360</v>
       </c>
-      <c r="G125">
-        <v>0.164401801275756</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>39964</v>
       </c>
@@ -3702,11 +3253,8 @@
       <c r="F126">
         <v>23283583979</v>
       </c>
-      <c r="G126">
-        <v>-0.09141919331983417</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>39994</v>
       </c>
@@ -3725,11 +3273,8 @@
       <c r="F127">
         <v>16004497086</v>
       </c>
-      <c r="G127">
-        <v>0.08233296956469016</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>40025</v>
       </c>
@@ -3748,11 +3293,8 @@
       <c r="F128">
         <v>17438127006</v>
       </c>
-      <c r="G128">
-        <v>0.1454294698942262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>40056</v>
       </c>
@@ -3771,11 +3313,8 @@
       <c r="F129">
         <v>14406133618</v>
       </c>
-      <c r="G129">
-        <v>0.1229886104168985</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>40086</v>
       </c>
@@ -3794,11 +3333,8 @@
       <c r="F130">
         <v>13148733219</v>
       </c>
-      <c r="G130">
-        <v>0.0348445031760094</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>40117</v>
       </c>
@@ -3817,11 +3353,8 @@
       <c r="F131">
         <v>16906552136</v>
       </c>
-      <c r="G131">
-        <v>-0.2042766718809406</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>40147</v>
       </c>
@@ -3840,11 +3373,8 @@
       <c r="F132">
         <v>14010141793</v>
       </c>
-      <c r="G132">
-        <v>0.09206360784885859</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>40178</v>
       </c>
@@ -3863,11 +3393,8 @@
       <c r="F133">
         <v>17848110074</v>
       </c>
-      <c r="G133">
-        <v>0.4304560119162921</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>40209</v>
       </c>
@@ -3886,11 +3413,8 @@
       <c r="F134">
         <v>14041591941</v>
       </c>
-      <c r="G134">
-        <v>-0.1759870187481031</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>40237</v>
       </c>
@@ -3909,11 +3433,8 @@
       <c r="F135">
         <v>13956343127</v>
       </c>
-      <c r="G135">
-        <v>0.05253688377114063</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>40268</v>
       </c>
@@ -3932,11 +3453,8 @@
       <c r="F136">
         <v>12778886204</v>
       </c>
-      <c r="G136">
-        <v>0.07394844875159845</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>40298</v>
       </c>
@@ -3955,11 +3473,8 @@
       <c r="F137">
         <v>18110511535</v>
       </c>
-      <c r="G137">
-        <v>-0.09726403388938321</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>40329</v>
       </c>
@@ -3978,11 +3493,8 @@
       <c r="F138">
         <v>22633924418</v>
       </c>
-      <c r="G138">
-        <v>-0.1636076880785913</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>40359</v>
       </c>
@@ -4001,11 +3513,8 @@
       <c r="F139">
         <v>14915316271</v>
       </c>
-      <c r="G139">
-        <v>-0.2227275745302436</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>40390</v>
       </c>
@@ -4024,11 +3533,8 @@
       <c r="F140">
         <v>20931548268</v>
       </c>
-      <c r="G140">
-        <v>-0.1001409473369496</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>40421</v>
       </c>
@@ -4047,11 +3553,8 @@
       <c r="F141">
         <v>21108127583</v>
       </c>
-      <c r="G141">
-        <v>0.01422034895862989</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>40451</v>
       </c>
@@ -4070,11 +3573,8 @@
       <c r="F142">
         <v>19107642425</v>
       </c>
-      <c r="G142">
-        <v>0.2530793710220891</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>40482</v>
       </c>
@@ -4093,11 +3593,8 @@
       <c r="F143">
         <v>17224372053</v>
       </c>
-      <c r="G143">
-        <v>0.02927643618491316</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>40512</v>
       </c>
@@ -4116,11 +3613,8 @@
       <c r="F144">
         <v>15831075662</v>
       </c>
-      <c r="G144">
-        <v>0.1323163895107711</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>40543</v>
       </c>
@@ -4139,11 +3633,8 @@
       <c r="F145">
         <v>12213417229</v>
       </c>
-      <c r="G145">
-        <v>0.1317682647414145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>40574</v>
       </c>
@@ -4162,11 +3653,8 @@
       <c r="F146">
         <v>35659841746</v>
       </c>
-      <c r="G146">
-        <v>0.5528550354915156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>40602</v>
       </c>
@@ -4185,11 +3673,8 @@
       <c r="F147">
         <v>26140054672</v>
       </c>
-      <c r="G147">
-        <v>-0.05274577804033964</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>40633</v>
       </c>
@@ -4208,11 +3693,8 @@
       <c r="F148">
         <v>30080214737</v>
       </c>
-      <c r="G148">
-        <v>-0.1854348487239997</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>40663</v>
       </c>
@@ -4231,11 +3713,8 @@
       <c r="F149">
         <v>16698493782</v>
       </c>
-      <c r="G149">
-        <v>0.08362438501056291</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>40694</v>
       </c>
@@ -4254,11 +3733,8 @@
       <c r="F150">
         <v>18688313646</v>
       </c>
-      <c r="G150">
-        <v>0.001999712146125043</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>40724</v>
       </c>
@@ -4277,11 +3753,8 @@
       <c r="F151">
         <v>17392426511</v>
       </c>
-      <c r="G151">
-        <v>-0.2046169281562104</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>40755</v>
       </c>
@@ -4300,11 +3773,8 @@
       <c r="F152">
         <v>15862953791</v>
       </c>
-      <c r="G152">
-        <v>-0.1324559123308662</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>40786</v>
       </c>
@@ -4323,11 +3793,8 @@
       <c r="F153">
         <v>24571552583</v>
       </c>
-      <c r="G153">
-        <v>-0.03760522555881107</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>40816</v>
       </c>
@@ -4346,11 +3813,8 @@
       <c r="F154">
         <v>21862421188</v>
       </c>
-      <c r="G154">
-        <v>-0.05995071017978992</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>40847</v>
       </c>
@@ -4369,11 +3833,8 @@
       <c r="F155">
         <v>16186657397</v>
       </c>
-      <c r="G155">
-        <v>0.1830003381664407</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>40877</v>
       </c>
@@ -4392,11 +3853,8 @@
       <c r="F156">
         <v>17614038535</v>
       </c>
-      <c r="G156">
-        <v>0.05619848349556356</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>40908</v>
       </c>
@@ -4415,11 +3873,8 @@
       <c r="F157">
         <v>10576032671</v>
       </c>
-      <c r="G157">
-        <v>-0.113411439078356</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>40939</v>
       </c>
@@ -4438,11 +3893,8 @@
       <c r="F158">
         <v>12420861200</v>
       </c>
-      <c r="G158">
-        <v>0.06576429713364962</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>40968</v>
       </c>
@@ -4461,11 +3913,8 @@
       <c r="F159">
         <v>14110901872</v>
       </c>
-      <c r="G159">
-        <v>0.02571068320670422</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>40999</v>
       </c>
@@ -4484,11 +3933,8 @@
       <c r="F160">
         <v>11108388806</v>
       </c>
-      <c r="G160">
-        <v>0.01676358820819912</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>41029</v>
       </c>
@@ -4507,11 +3953,8 @@
       <c r="F161">
         <v>10386807765</v>
       </c>
-      <c r="G161">
-        <v>-0.1560607390502941</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>41060</v>
       </c>
@@ -4530,11 +3973,8 @@
       <c r="F162">
         <v>12181215881</v>
       </c>
-      <c r="G162">
-        <v>-0.04357774310972451</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>41090</v>
       </c>
@@ -4553,11 +3993,8 @@
       <c r="F163">
         <v>12466764517</v>
       </c>
-      <c r="G163">
-        <v>0.1113071601958777</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>41121</v>
       </c>
@@ -4576,11 +4013,8 @@
       <c r="F164">
         <v>9268150750</v>
       </c>
-      <c r="G164">
-        <v>-0.02007531399243079</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>41152</v>
       </c>
@@ -4599,11 +4033,8 @@
       <c r="F165">
         <v>10790230051</v>
       </c>
-      <c r="G165">
-        <v>0.03624773310742246</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>41182</v>
       </c>
@@ -4622,11 +4053,8 @@
       <c r="F166">
         <v>9540559153</v>
       </c>
-      <c r="G166">
-        <v>-0.04947466583773696</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>41213</v>
       </c>
@@ -4645,11 +4073,8 @@
       <c r="F167">
         <v>8871048428</v>
       </c>
-      <c r="G167">
-        <v>-0.1018169688407503</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>41243</v>
       </c>
@@ -4668,11 +4093,8 @@
       <c r="F168">
         <v>10764339119</v>
       </c>
-      <c r="G168">
-        <v>0.005632623338794884</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>41274</v>
       </c>
@@ -4691,11 +4113,8 @@
       <c r="F169">
         <v>8708040132</v>
       </c>
-      <c r="G169">
-        <v>0.02459476388230142</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>41305</v>
       </c>
@@ -4714,11 +4133,8 @@
       <c r="F170">
         <v>9947644994</v>
       </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>41333</v>
       </c>
@@ -4737,11 +4153,8 @@
       <c r="F171">
         <v>10715841114</v>
       </c>
-      <c r="G171">
-        <v>0.03873988480158319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>41364</v>
       </c>
@@ -4760,11 +4173,8 @@
       <c r="F172">
         <v>7131135500</v>
       </c>
-      <c r="G172">
-        <v>0.01330824995832658</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>41394</v>
       </c>
@@ -4783,11 +4193,8 @@
       <c r="F173">
         <v>10106000413</v>
       </c>
-      <c r="G173">
-        <v>0.07331844963322309</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>41425</v>
       </c>
@@ -4806,11 +4213,8 @@
       <c r="F174">
         <v>8920940870</v>
       </c>
-      <c r="G174">
-        <v>0.05646785776843566</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>41455</v>
       </c>
@@ -4829,11 +4233,8 @@
       <c r="F175">
         <v>9958931954</v>
       </c>
-      <c r="G175">
-        <v>-0.03009856198391136</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>41486</v>
       </c>
@@ -4852,11 +4253,8 @@
       <c r="F176">
         <v>5603137257</v>
       </c>
-      <c r="G176">
-        <v>0.02859052904383819</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>41517</v>
       </c>
@@ -4875,11 +4273,8 @@
       <c r="F177">
         <v>8405014237</v>
       </c>
-      <c r="G177">
-        <v>0.02660873642630945</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>41547</v>
       </c>
@@ -4898,11 +4293,8 @@
       <c r="F178">
         <v>5141388103</v>
       </c>
-      <c r="G178">
-        <v>0.05496309872428262</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>41578</v>
       </c>
@@ -4921,11 +4313,8 @@
       <c r="F179">
         <v>6151940584</v>
       </c>
-      <c r="G179">
-        <v>-0.02391378214262219</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>41608</v>
       </c>
@@ -4944,11 +4333,8 @@
       <c r="F180">
         <v>7054619103</v>
       </c>
-      <c r="G180">
-        <v>0.03277289456470789</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>41639</v>
       </c>
@@ -4967,11 +4353,8 @@
       <c r="F181">
         <v>6538437410</v>
       </c>
-      <c r="G181">
-        <v>0.02700315045816204</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>41670</v>
       </c>
@@ -4990,11 +4373,8 @@
       <c r="F182">
         <v>5744366639</v>
       </c>
-      <c r="G182">
-        <v>-0.02008909075028398</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>41698</v>
       </c>
@@ -5013,11 +4393,8 @@
       <c r="F183">
         <v>8183195512</v>
       </c>
-      <c r="G183">
-        <v>0.1758515721435769</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>41729</v>
       </c>
@@ -5036,11 +4413,8 @@
       <c r="F184">
         <v>7618660147</v>
       </c>
-      <c r="G184">
-        <v>-0.02562412136024916</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>41759</v>
       </c>
@@ -5059,11 +4433,8 @@
       <c r="F185">
         <v>7321768568</v>
       </c>
-      <c r="G185">
-        <v>0.03140434299832373</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>41790</v>
       </c>
@@ -5082,11 +4453,8 @@
       <c r="F186">
         <v>5916059366</v>
       </c>
-      <c r="G186">
-        <v>0.03356815345441566</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>41820</v>
       </c>
@@ -5105,11 +4473,8 @@
       <c r="F187">
         <v>5544228215</v>
       </c>
-      <c r="G187">
-        <v>-0.02448560762875285</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>41851</v>
       </c>
@@ -5128,11 +4493,8 @@
       <c r="F188">
         <v>6586476868</v>
       </c>
-      <c r="G188">
-        <v>-0.05593817443189031</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>41882</v>
       </c>
@@ -5151,11 +4513,8 @@
       <c r="F189">
         <v>6378914938</v>
       </c>
-      <c r="G189">
-        <v>0.1163201156477449</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>41912</v>
       </c>
@@ -5174,11 +4533,8 @@
       <c r="F190">
         <v>5765855171</v>
       </c>
-      <c r="G190">
-        <v>-0.05150824841839885</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>41943</v>
       </c>
@@ -5197,11 +4553,8 @@
       <c r="F191">
         <v>6911080890</v>
       </c>
-      <c r="G191">
-        <v>0.0591746573167744</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>41973</v>
       </c>
@@ -5220,11 +4573,8 @@
       <c r="F192">
         <v>4850646150</v>
       </c>
-      <c r="G192">
-        <v>0.07769193874404734</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>42004</v>
       </c>
@@ -5243,11 +4593,8 @@
       <c r="F193">
         <v>4436424404</v>
       </c>
-      <c r="G193">
-        <v>-0.04396313986664224</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>42035</v>
       </c>
@@ -5266,11 +4613,8 @@
       <c r="F194">
         <v>4281008863</v>
       </c>
-      <c r="G194">
-        <v>-0.04239568894033641</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>42063</v>
       </c>
@@ -5289,11 +4633,8 @@
       <c r="F195">
         <v>4364953665</v>
       </c>
-      <c r="G195">
-        <v>0.1535979131083964</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>42094</v>
       </c>
@@ -5312,11 +4653,8 @@
       <c r="F196">
         <v>7585109878</v>
       </c>
-      <c r="G196">
-        <v>-0.05154489837383092</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>42124</v>
       </c>
@@ -5335,11 +4673,8 @@
       <c r="F197">
         <v>5881943966</v>
       </c>
-      <c r="G197">
-        <v>0.06054661543923823</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>42155</v>
       </c>
@@ -5358,11 +4693,8 @@
       <c r="F198">
         <v>7336323720</v>
       </c>
-      <c r="G198">
-        <v>0.001926378669938389</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>42185</v>
       </c>
@@ -5381,11 +4713,8 @@
       <c r="F199">
         <v>7574439766</v>
       </c>
-      <c r="G199">
-        <v>-0.09133638970192937</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>42216</v>
       </c>
@@ -5404,11 +4733,8 @@
       <c r="F200">
         <v>5660295058</v>
       </c>
-      <c r="G200">
-        <v>-0.007997419789556703</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>42247</v>
       </c>
@@ -5427,11 +4753,8 @@
       <c r="F201">
         <v>9758895520</v>
       </c>
-      <c r="G201">
-        <v>0.1315478298325288</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>42277</v>
       </c>
@@ -5450,11 +4773,8 @@
       <c r="F202">
         <v>6665003005</v>
       </c>
-      <c r="G202">
-        <v>0.09658462844886273</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>42308</v>
       </c>
@@ -5473,11 +4793,8 @@
       <c r="F203">
         <v>8283559888</v>
       </c>
-      <c r="G203">
-        <v>0.1508761037872985</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>42338</v>
       </c>
@@ -5496,11 +4813,8 @@
       <c r="F204">
         <v>7520352593</v>
       </c>
-      <c r="G204">
-        <v>0.1222973070955204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>42369</v>
       </c>
@@ -5519,11 +4833,8 @@
       <c r="F205">
         <v>5730411690</v>
       </c>
-      <c r="G205">
-        <v>0.03910585651064369</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>42400</v>
       </c>
@@ -5542,11 +4853,8 @@
       <c r="F206">
         <v>7535565274</v>
       </c>
-      <c r="G206">
-        <v>-0.111338116614233</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>42429</v>
       </c>
@@ -5565,11 +4873,8 @@
       <c r="F207">
         <v>8212376616</v>
       </c>
-      <c r="G207">
-        <v>0.07455226522522107</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>42460</v>
       </c>
@@ -5588,11 +4893,8 @@
       <c r="F208">
         <v>6283262007</v>
       </c>
-      <c r="G208">
-        <v>0.1362164879182011</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>42490</v>
       </c>
@@ -5611,11 +4913,8 @@
       <c r="F209">
         <v>6261679225</v>
       </c>
-      <c r="G209">
-        <v>-0.002826241179457067</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>42521</v>
       </c>
@@ -5634,11 +4933,8 @@
       <c r="F210">
         <v>9558150328</v>
       </c>
-      <c r="G210">
-        <v>0.3182947138796719</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>42551</v>
       </c>
@@ -5657,11 +4953,8 @@
       <c r="F211">
         <v>7012446792</v>
       </c>
-      <c r="G211">
-        <v>0.00625103530047677</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>42582</v>
       </c>
@@ -5680,11 +4973,8 @@
       <c r="F212">
         <v>6517093742</v>
       </c>
-      <c r="G212">
-        <v>0.2146978807465041</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>42613</v>
       </c>
@@ -5703,11 +4993,8 @@
       <c r="F213">
         <v>8497990432</v>
       </c>
-      <c r="G213">
-        <v>0.07615657855318902</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>42643</v>
       </c>
@@ -5726,11 +5013,8 @@
       <c r="F214">
         <v>7723286697</v>
       </c>
-      <c r="G214">
-        <v>0.1171367025683514</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>42674</v>
       </c>
@@ -5749,11 +5033,8 @@
       <c r="F215">
         <v>5696045846</v>
       </c>
-      <c r="G215">
-        <v>0.03845788736739686</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>42704</v>
       </c>
@@ -5772,11 +5053,8 @@
       <c r="F216">
         <v>12513076756</v>
       </c>
-      <c r="G216">
-        <v>0.2976004113580528</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>42735</v>
       </c>
@@ -5795,11 +5073,8 @@
       <c r="F217">
         <v>17913269910</v>
       </c>
-      <c r="G217">
-        <v>0.1577543050119101</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>42766</v>
       </c>
@@ -5818,11 +5093,8 @@
       <c r="F218">
         <v>13004554985</v>
       </c>
-      <c r="G218">
-        <v>0.02273833609687093</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>42794</v>
       </c>
@@ -5841,11 +5113,8 @@
       <c r="F219">
         <v>13880573962</v>
       </c>
-      <c r="G219">
-        <v>-0.06913028442662883</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>42825</v>
       </c>
@@ -5864,11 +5133,8 @@
       <c r="F220">
         <v>14073683637</v>
       </c>
-      <c r="G220">
-        <v>0.07318563850185367</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>42855</v>
       </c>
@@ -5887,11 +5153,8 @@
       <c r="F221">
         <v>9581677981</v>
       </c>
-      <c r="G221">
-        <v>-0.04244073297922635</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>42886</v>
       </c>
@@ -5910,11 +5173,8 @@
       <c r="F222">
         <v>19344870536</v>
       </c>
-      <c r="G222">
-        <v>0.3854307982352141</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>42916</v>
       </c>
@@ -5933,11 +5193,8 @@
       <c r="F223">
         <v>23677413770</v>
       </c>
-      <c r="G223">
-        <v>0.001453386418412528</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>42947</v>
       </c>
@@ -5956,11 +5213,8 @@
       <c r="F224">
         <v>15616836198</v>
       </c>
-      <c r="G224">
-        <v>0.1241542388219441</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>42978</v>
       </c>
@@ -5979,11 +5233,8 @@
       <c r="F225">
         <v>14816586684</v>
       </c>
-      <c r="G225">
-        <v>0.04359723956425188</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>43008</v>
       </c>
@@ -6002,11 +5253,8 @@
       <c r="F226">
         <v>14551180869</v>
       </c>
-      <c r="G226">
-        <v>0.05511135947881018</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>43039</v>
       </c>
@@ -6025,11 +5273,8 @@
       <c r="F227">
         <v>11512099995</v>
       </c>
-      <c r="G227">
-        <v>0.1568906161231838</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>43069</v>
       </c>
@@ -6048,11 +5293,8 @@
       <c r="F228">
         <v>11925750869</v>
       </c>
-      <c r="G228">
-        <v>-0.02893018760503752</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>43100</v>
       </c>
@@ -6071,11 +5313,8 @@
       <c r="F229">
         <v>10189160575</v>
       </c>
-      <c r="G229">
-        <v>-0.03592900028206469</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>43131</v>
       </c>
@@ -6094,11 +5333,8 @@
       <c r="F230">
         <v>11512770828</v>
       </c>
-      <c r="G230">
-        <v>0.2703931185959663</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>43159</v>
       </c>
@@ -6117,11 +5353,8 @@
       <c r="F231">
         <v>14958133691</v>
       </c>
-      <c r="G231">
-        <v>-0.01489573805873412</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>43190</v>
       </c>
@@ -6140,11 +5373,8 @@
       <c r="F232">
         <v>14263856876</v>
       </c>
-      <c r="G232">
-        <v>-0.04303341309905695</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>43220</v>
       </c>
@@ -6163,11 +5393,8 @@
       <c r="F233">
         <v>11260746842</v>
       </c>
-      <c r="G233">
-        <v>-0.02886049973214311</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>43251</v>
       </c>
@@ -6186,11 +5413,8 @@
       <c r="F234">
         <v>12100104392</v>
       </c>
-      <c r="G234">
-        <v>0.1220082367823363</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>43281</v>
       </c>
@@ -6209,11 +5433,8 @@
       <c r="F235">
         <v>8870536706</v>
       </c>
-      <c r="G235">
-        <v>-0.0605737401690184</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>43312</v>
       </c>
@@ -6232,11 +5453,8 @@
       <c r="F236">
         <v>6384442718</v>
       </c>
-      <c r="G236">
-        <v>0.03361887471126224</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>43343</v>
       </c>
@@ -6255,11 +5473,8 @@
       <c r="F237">
         <v>11023092560</v>
       </c>
-      <c r="G237">
-        <v>0.1467807746987595</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>43373</v>
       </c>
@@ -6278,11 +5493,8 @@
       <c r="F238">
         <v>6398035364</v>
       </c>
-      <c r="G238">
-        <v>0.00122101526916274</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>43404</v>
       </c>
@@ -6301,11 +5513,8 @@
       <c r="F239">
         <v>13096372916</v>
       </c>
-      <c r="G239">
-        <v>-0.2497414432065639</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>43434</v>
       </c>
@@ -6324,11 +5533,8 @@
       <c r="F240">
         <v>16308497019</v>
       </c>
-      <c r="G240">
-        <v>-0.2240914860743353</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>43465</v>
       </c>
@@ -6347,11 +5553,8 @@
       <c r="F241">
         <v>12552207181</v>
       </c>
-      <c r="G241">
-        <v>-0.1831324766078408</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>43496</v>
       </c>
@@ -6370,11 +5573,8 @@
       <c r="F242">
         <v>17008540206</v>
       </c>
-      <c r="G242">
-        <v>0.07682292846635064</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>43524</v>
       </c>
@@ -6393,11 +5593,8 @@
       <c r="F243">
         <v>11538272534</v>
       </c>
-      <c r="G243">
-        <v>0.07419511387767574</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>43555</v>
       </c>
@@ -6416,11 +5613,8 @@
       <c r="F244">
         <v>12153910340</v>
       </c>
-      <c r="G244">
-        <v>0.1641196256215269</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>43585</v>
       </c>
@@ -6439,11 +5633,8 @@
       <c r="F245">
         <v>9509884247</v>
       </c>
-      <c r="G245">
-        <v>0.007974893107269621</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>43616</v>
       </c>
@@ -6462,11 +5653,8 @@
       <c r="F246">
         <v>11258969824</v>
       </c>
-      <c r="G246">
-        <v>-0.250756127470072</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>43646</v>
       </c>
@@ -6485,11 +5673,8 @@
       <c r="F247">
         <v>8282140411</v>
       </c>
-      <c r="G247">
-        <v>0.2123971876420214</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>43677</v>
       </c>
@@ -6508,11 +5693,8 @@
       <c r="F248">
         <v>8468651414</v>
       </c>
-      <c r="G248">
-        <v>0.02729798462375221</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>43708</v>
       </c>
@@ -6531,11 +5713,8 @@
       <c r="F249">
         <v>9605078373</v>
       </c>
-      <c r="G249">
-        <v>-0.006193597008375851</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>43738</v>
       </c>
@@ -6554,11 +5733,8 @@
       <c r="F250">
         <v>6439079119</v>
       </c>
-      <c r="G250">
-        <v>0.03922420309714014</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>43769</v>
       </c>
@@ -6577,11 +5753,8 @@
       <c r="F251">
         <v>7849345789</v>
       </c>
-      <c r="G251">
-        <v>0.1547897250214756</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>43799</v>
       </c>
@@ -6600,11 +5773,8 @@
       <c r="F252">
         <v>7373339112</v>
       </c>
-      <c r="G252">
-        <v>0.07905071947912745</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>43830</v>
       </c>
@@ -6623,11 +5793,8 @@
       <c r="F253">
         <v>6600713167</v>
       </c>
-      <c r="G253">
-        <v>0.08559790665955047</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>43861</v>
       </c>
@@ -6646,11 +5813,8 @@
       <c r="F254">
         <v>6158497825</v>
       </c>
-      <c r="G254">
-        <v>0.004786567566737121</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>43890</v>
       </c>
@@ -6669,11 +5833,8 @@
       <c r="F255">
         <v>11903669124</v>
       </c>
-      <c r="G255">
-        <v>0.1430098027556448</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>43921</v>
       </c>
@@ -6692,11 +5853,8 @@
       <c r="F256">
         <v>15834207126</v>
       </c>
-      <c r="G256">
-        <v>-0.02400016647170655</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>43951</v>
       </c>
@@ -6715,11 +5873,8 @@
       <c r="F257">
         <v>11321206474</v>
       </c>
-      <c r="G257">
-        <v>0.1088023879142301</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>43982</v>
       </c>
@@ -6738,11 +5893,8 @@
       <c r="F258">
         <v>12598501682</v>
       </c>
-      <c r="G258">
-        <v>0.2146661648930617</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>44012</v>
       </c>
@@ -6761,11 +5913,8 @@
       <c r="F259">
         <v>9751085795</v>
       </c>
-      <c r="G259">
-        <v>0.07060208349587671</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>44043</v>
       </c>
@@ -6784,11 +5933,8 @@
       <c r="F260">
         <v>8120653814</v>
       </c>
-      <c r="G260">
-        <v>0.1175643048611243</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>44074</v>
       </c>
@@ -6807,11 +5953,8 @@
       <c r="F261">
         <v>9704261766</v>
       </c>
-      <c r="G261">
-        <v>0.2600625632011189</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>44104</v>
       </c>
@@ -6830,11 +5973,8 @@
       <c r="F262">
         <v>15905421988</v>
       </c>
-      <c r="G262">
-        <v>0.01197770960991829</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>44135</v>
       </c>
@@ -6853,11 +5993,8 @@
       <c r="F263">
         <v>8046464003</v>
       </c>
-      <c r="G263">
-        <v>-0.0736985651606783</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>44165</v>
       </c>
@@ -6876,11 +6013,8 @@
       <c r="F264">
         <v>7617624693</v>
       </c>
-      <c r="G264">
-        <v>0.06926486590283565</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>44196</v>
       </c>
@@ -6899,11 +6033,8 @@
       <c r="F265">
         <v>5134877057</v>
       </c>
-      <c r="G265">
-        <v>-0.02562836255340806</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>44227</v>
       </c>
@@ -6922,11 +6053,8 @@
       <c r="F266">
         <v>6171042052</v>
       </c>
-      <c r="G266">
-        <v>-0.004984026540517328</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>44255</v>
       </c>
@@ -6945,11 +6073,8 @@
       <c r="F267">
         <v>6697447759</v>
       </c>
-      <c r="G267">
-        <v>0.05587842583373859</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>44286</v>
       </c>
@@ -6968,11 +6093,8 @@
       <c r="F268">
         <v>7667160094</v>
       </c>
-      <c r="G268">
-        <v>-0.02643139605429545</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>44316</v>
       </c>
@@ -6991,11 +6113,8 @@
       <c r="F269">
         <v>6733794354</v>
       </c>
-      <c r="G269">
-        <v>0.1244528534210267</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>44347</v>
       </c>
@@ -7014,11 +6133,8 @@
       <c r="F270">
         <v>7070164258</v>
       </c>
-      <c r="G270">
-        <v>0.08220769595438249</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>44377</v>
       </c>
@@ -7037,11 +6153,8 @@
       <c r="F271">
         <v>10294168246</v>
       </c>
-      <c r="G271">
-        <v>0.2317018244189564</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>44408</v>
       </c>
@@ -7060,11 +6173,8 @@
       <c r="F272">
         <v>7839055549</v>
       </c>
-      <c r="G272">
-        <v>-0.02511107882965247</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>44439</v>
       </c>
@@ -7083,11 +6193,8 @@
       <c r="F273">
         <v>6429419031</v>
       </c>
-      <c r="G273">
-        <v>0.1481296886239851</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>44469</v>
       </c>
@@ -7106,11 +6213,8 @@
       <c r="F274">
         <v>5008489858</v>
       </c>
-      <c r="G274">
-        <v>-0.07459420270397266</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>44500</v>
       </c>
@@ -7129,11 +6233,8 @@
       <c r="F275">
         <v>4979953342</v>
       </c>
-      <c r="G275">
-        <v>0.2342526634458677</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>44530</v>
       </c>
@@ -7152,11 +6253,8 @@
       <c r="F276">
         <v>10830477103</v>
       </c>
-      <c r="G276">
-        <v>0.2780072094663428</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>44561</v>
       </c>
@@ -7175,11 +6273,8 @@
       <c r="F277">
         <v>11081204804</v>
       </c>
-      <c r="G277">
-        <v>-0.09979366777752907</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>44592</v>
       </c>
@@ -7198,11 +6293,8 @@
       <c r="F278">
         <v>10702352051</v>
       </c>
-      <c r="G278">
-        <v>-0.1674528221563025</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>44620</v>
       </c>
@@ -7221,11 +6313,8 @@
       <c r="F279">
         <v>10663858104</v>
       </c>
-      <c r="G279">
-        <v>-0.004119367572763877</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>44651</v>
       </c>
@@ -7244,11 +6333,8 @@
       <c r="F280">
         <v>11662645010</v>
       </c>
-      <c r="G280">
-        <v>0.1191465939338174</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>44681</v>
       </c>
@@ -7267,11 +6353,8 @@
       <c r="F281">
         <v>11131565887</v>
       </c>
-      <c r="G281">
-        <v>-0.3202705777856079</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>44712</v>
       </c>
@@ -7290,11 +6373,8 @@
       <c r="F282">
         <v>13853664318</v>
       </c>
-      <c r="G282">
-        <v>0.006738842841329529</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>44742</v>
       </c>
@@ -7313,11 +6393,8 @@
       <c r="F283">
         <v>10570836510</v>
       </c>
-      <c r="G283">
-        <v>-0.1879716588984301</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>44773</v>
       </c>
@@ -7336,11 +6413,8 @@
       <c r="F284">
         <v>10579889105</v>
       </c>
-      <c r="G284">
-        <v>0.1981545208953943</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>44804</v>
       </c>
@@ -7359,11 +6433,8 @@
       <c r="F285">
         <v>12087032372</v>
       </c>
-      <c r="G285">
-        <v>-0.1689664106903643</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>44834</v>
       </c>
@@ -7382,11 +6453,8 @@
       <c r="F286">
         <v>13144740805</v>
       </c>
-      <c r="G286">
-        <v>-0.1955395463922996</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>44865</v>
       </c>
@@ -7405,11 +6473,8 @@
       <c r="F287">
         <v>12564201182</v>
       </c>
-      <c r="G287">
-        <v>0.1118743300074214</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>44895</v>
       </c>
@@ -7428,11 +6493,8 @@
       <c r="F288">
         <v>10611294309</v>
       </c>
-      <c r="G288">
-        <v>0.2541513086170708</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>44926</v>
       </c>
@@ -7451,11 +6513,8 @@
       <c r="F289">
         <v>8952658303</v>
       </c>
-      <c r="G289">
-        <v>-0.1364351353588872</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>44957</v>
       </c>
@@ -7474,11 +6533,8 @@
       <c r="F290">
         <v>9461835321</v>
       </c>
-      <c r="G290">
-        <v>0.3368736047769696</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>44985</v>
       </c>
@@ -7497,11 +6553,8 @@
       <c r="F291">
         <v>10401650471</v>
       </c>
-      <c r="G291">
-        <v>0.1883070650364445</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>45016</v>
       </c>
@@ -7520,11 +6573,8 @@
       <c r="F292">
         <v>11273145580</v>
       </c>
-      <c r="G292">
-        <v>0.1966576433670126</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>45046</v>
       </c>
@@ -7543,11 +6593,8 @@
       <c r="F293">
         <v>7440594928</v>
       </c>
-      <c r="G293">
-        <v>-0.001008591034346251</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>45077</v>
       </c>
@@ -7566,11 +6613,8 @@
       <c r="F294">
         <v>11704339219</v>
       </c>
-      <c r="G294">
-        <v>0.3634413254728037</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>45107</v>
       </c>
@@ -7589,11 +6633,8 @@
       <c r="F295">
         <v>10532999583</v>
       </c>
-      <c r="G295">
-        <v>0.1182080236955545</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>45138</v>
       </c>
@@ -7612,11 +6653,8 @@
       <c r="F296">
         <v>8712964555</v>
       </c>
-      <c r="G296">
-        <v>0.1046524828062474</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>45169</v>
       </c>
@@ -7635,11 +6673,8 @@
       <c r="F297">
         <v>13642572809</v>
       </c>
-      <c r="G297">
-        <v>0.05619618136585336</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>45199</v>
       </c>
@@ -7658,11 +6693,8 @@
       <c r="F298">
         <v>8583360014</v>
       </c>
-      <c r="G298">
-        <v>-0.1185767626275526</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>45230</v>
       </c>
@@ -7681,11 +6713,8 @@
       <c r="F299">
         <v>10146180791</v>
       </c>
-      <c r="G299">
-        <v>-0.06250733046783918</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>45260</v>
       </c>
@@ -7704,11 +6733,8 @@
       <c r="F300">
         <v>9153148830</v>
       </c>
-      <c r="G300">
-        <v>0.1468861692289201</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>45291</v>
       </c>
@@ -7727,11 +6753,8 @@
       <c r="F301">
         <v>7414058775</v>
       </c>
-      <c r="G301">
-        <v>0.05893349475003595</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>45322</v>
       </c>
@@ -7750,11 +6773,8 @@
       <c r="F302">
         <v>9708988991</v>
       </c>
-      <c r="G302">
-        <v>0.2424153672133798</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>45351</v>
       </c>
@@ -7773,11 +6793,8 @@
       <c r="F303">
         <v>11081040049</v>
       </c>
-      <c r="G303">
-        <v>0.285811134865346</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>45382</v>
       </c>
@@ -7796,11 +6813,8 @@
       <c r="F304">
         <v>12152146320</v>
       </c>
-      <c r="G304">
-        <v>0.1421817786409338</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <v>45412</v>
       </c>
@@ -7819,11 +6833,8 @@
       <c r="F305">
         <v>10072844247</v>
       </c>
-      <c r="G305">
-        <v>-0.04376169954624298</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <v>45443</v>
       </c>
@@ -7842,11 +6853,8 @@
       <c r="F306">
         <v>9650253272</v>
       </c>
-      <c r="G306">
-        <v>0.2688712282143746</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <v>45473</v>
       </c>
@@ -7865,11 +6873,8 @@
       <c r="F307">
         <v>7443914818</v>
       </c>
-      <c r="G307">
-        <v>0.1269353234738657</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <v>45504</v>
       </c>
@@ -7888,11 +6893,8 @@
       <c r="F308">
         <v>6408082339</v>
       </c>
-      <c r="G308">
-        <v>-0.05276878238341964</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <v>45535</v>
       </c>
@@ -7911,11 +6913,8 @@
       <c r="F309">
         <v>8106619444</v>
       </c>
-      <c r="G309">
-        <v>0.02008512674997021</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <v>45565</v>
       </c>
@@ -7934,11 +6933,8 @@
       <c r="F310">
         <v>6273361693</v>
       </c>
-      <c r="G310">
-        <v>0.01742744151752795</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <v>45596</v>
       </c>
@@ -7957,11 +6953,8 @@
       <c r="F311">
         <v>5629092618</v>
       </c>
-      <c r="G311">
-        <v>0.09321266223071345</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <v>45626</v>
       </c>
@@ -7980,11 +6973,8 @@
       <c r="F312">
         <v>4498385060</v>
       </c>
-      <c r="G312">
-        <v>0.04134808777335008</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <v>45657</v>
       </c>
@@ -8003,11 +6993,8 @@
       <c r="F313">
         <v>4086207646</v>
       </c>
-      <c r="G313">
-        <v>-0.02857349537037046</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <v>45688</v>
       </c>
@@ -8026,11 +7013,8 @@
       <c r="F314">
         <v>5950612536</v>
       </c>
-      <c r="G314">
-        <v>-0.1058902375456102</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <v>45716</v>
       </c>
@@ -8049,11 +7033,8 @@
       <c r="F315">
         <v>4756110221</v>
       </c>
-      <c r="G315">
-        <v>0.0403931040226535</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <v>45747</v>
       </c>
@@ -8072,11 +7053,8 @@
       <c r="F316">
         <v>6180918571</v>
       </c>
-      <c r="G316">
-        <v>-0.1324047390329811</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <v>45777</v>
       </c>
@@ -8095,11 +7073,8 @@
       <c r="F317">
         <v>6811006433</v>
       </c>
-      <c r="G317">
-        <v>0.004982469090238029</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <v>45808</v>
       </c>
@@ -8118,11 +7093,8 @@
       <c r="F318">
         <v>4759246184</v>
       </c>
-      <c r="G318">
-        <v>0.2406353286816012</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <v>45838</v>
       </c>
@@ -8141,11 +7113,8 @@
       <c r="F319">
         <v>3822309699</v>
       </c>
-      <c r="G319">
-        <v>0.1691704284762823</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <v>45869</v>
       </c>
@@ -8164,11 +7133,8 @@
       <c r="F320">
         <v>3596804483</v>
       </c>
-      <c r="G320">
-        <v>0.1258307487815684</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" s="1">
         <v>45900</v>
       </c>
@@ -8187,11 +7153,8 @@
       <c r="F321">
         <v>3609134562</v>
       </c>
-      <c r="G321">
-        <v>-0.02074548827795575</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <v>45930</v>
       </c>
@@ -8210,11 +7173,8 @@
       <c r="F322">
         <v>3890495378</v>
       </c>
-      <c r="G322">
-        <v>0.07119072224135947</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <v>45961</v>
       </c>
@@ -8232,9 +7192,6 @@
       </c>
       <c r="F323">
         <v>2081252110</v>
-      </c>
-      <c r="G323">
-        <v>-0.02556544109765257</v>
       </c>
     </row>
   </sheetData>
@@ -8255,11 +7212,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11153,6 +10110,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -11172,21 +10132,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>321</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <f>ROWS(tReturns[Return])</f>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -11197,234 +10158,159 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
-        <v>0.04134319889542051</v>
-      </c>
-      <c r="D3" s="1">
-        <v>36494</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.5706733048838313</v>
+        <f>AVERAGE(tReturns[Return])</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" cm="1">
+        <f t="array" ref="D3">_xlfn._xlws.FILTER(tReturns[[Date]:[Return]],(tReturns[Return]&lt;(QUARTILE.INC(tReturns[Return],1) - 1.5*(QUARTILE.INC(tReturns[Return],3)-QUARTILE.INC(tReturns[Return],1))))+(tReturns[Return]&gt;(QUARTILE.INC(tReturns[Return],3) + 1.5*(QUARTILE.INC(tReturns[Return],3)-QUARTILE.INC(tReturns[Return],1)))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>0.03277289456470789</v>
-      </c>
-      <c r="D4" s="1">
-        <v>36585</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.7251610571901235</v>
+        <f>MEDIAN(tReturns[Return])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>36860</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.3485656557152779</v>
+        <f>MODE.SNGL(tReturns[Return])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
-        <v>1.318007601376772</v>
-      </c>
-      <c r="D6" s="1">
-        <v>36922</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.5769986579754602</v>
+        <f>(MAX(tReturns[Return]) - MIN(tReturns[Return]))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0.03056616145103983</v>
-      </c>
-      <c r="D7" s="1">
-        <v>36981</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.4522170313908698</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <f>VAR.S(tReturns[Return])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.1748318090366848</v>
-      </c>
-      <c r="D8" s="1">
-        <v>37164</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.3512384694753882</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <f>STDEV.S(tReturns[Return])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.08673536318586705</v>
-      </c>
-      <c r="D9" s="1">
-        <v>37195</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.5598977181821645</v>
+        <f>PERCENTILE.INC(tReturns[Return],0.2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
-        <v>0.06576429713364962</v>
-      </c>
-      <c r="D10" s="1">
-        <v>37437</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-0.4860624315443592</v>
+        <f>PERCENTILE.INC(tReturns[Return],0.6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>0.2424153672133798</v>
-      </c>
-      <c r="D11" s="1">
-        <v>37468</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-0.3559768006515303</v>
+        <f>PERCENTILE.INC(tReturns[Return],0.9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
-        <v>-0.4860624315443592</v>
-      </c>
-      <c r="D12" s="1">
-        <v>37590</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.4383831058957963</v>
+        <f>MIN(tReturns[Return])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.05154489837383092</v>
-      </c>
-      <c r="D13" s="1">
-        <v>37621</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-0.3275022343082811</v>
+        <f>QUARTILE.INC(tReturns[Return],1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
-        <v>0.03277289456470789</v>
-      </c>
-      <c r="D14" s="1">
-        <v>37772</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.8319451698324125</v>
+        <f>MEDIAN(tReturns[Return])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3">
-        <v>0.1269353234738657</v>
-      </c>
-      <c r="D15" s="1">
-        <v>39660</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-0.3889697814038332</v>
+        <f>QUARTILE.INC(tReturns[Return],3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
-        <v>0.8319451698324125</v>
-      </c>
-      <c r="D16" s="1">
-        <v>40178</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.4304560119162921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <f>MAX(tReturns[Return])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
-        <v>0.1784802218476966</v>
-      </c>
-      <c r="D17" s="1">
-        <v>40574</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.5528550354915156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f>(QUARTILE.INC(tReturns[Return],3)-QUARTILE.INC(tReturns[Return],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.3192652311453759</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44681</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-0.3202705777856079</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f>(QUARTILE.INC(tReturns[Return],1) - 1.5*(QUARTILE.INC(tReturns[Return],3)-QUARTILE.INC(tReturns[Return],1)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
-        <v>0.3946556562454107</v>
+        <f>(QUARTILE.INC(tReturns[Return],3) + 1.5*(QUARTILE.INC(tReturns[Return],3)-QUARTILE.INC(tReturns[Return],1)))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11434,190 +10320,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
         <v>32</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" cm="1">
+        <f t="array" ref="A2">_xlfn.SEQUENCE($G$4,1,$G$2,$G$1)</f>
+        <v>0</v>
+      </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.003115264797507788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.02180685358255452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.04672897196261682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+        <f>TEXT(A2#,"0%")&amp;" to "&amp;TEXT(A2# + $G$1,"0%")</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS(tReturns[Return],"&gt;="&amp;A2#, tReturns[Return],"&lt;"&amp;A2# + $G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2#/SUM(C2#)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
+      <c r="G2" s="3">
+        <f>FLOOR.MATH(MIN(tReturns[Return])/$G$1,1)*$G$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3">
+        <f>CEILING.MATH(MAX(tReturns[Return])/$G$1,1)*$G$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.1152647975077882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>64</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.1993769470404984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>93</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.2897196261682243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>57</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.1775700934579439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.08411214953271028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.03426791277258567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.009345794392523364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.01246105919003115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.003115264797507788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.003115264797507788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="G4" s="5">
+        <f>INT((G3-G2)/$G$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11641,7 +10417,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11651,8 +10427,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>47</v>
+      <c r="A1">
+        <f>"Sample size: "&amp;TEXT('Descriptive Stats'!B1,"0")&amp;" months." )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <f>"Mean monthly return: "&amp;TEXT('Descriptive Stats'!B2,"0.00%")&amp;"; Std Dev (monthly): "&amp;TEXT('Descriptive Stats'!B7,"0.00%")&amp;"."</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <f>"Min: "&amp;TEXT('Descriptive Stats'!B11,"0.00%")&amp;", 20th pct: "&amp;TEXT('Descriptive Stats'!B8,"0.00%")&amp;", Median: "&amp;TEXT('Descriptive Stats'!B3,"0.00%")&amp;", 60th pct: "&amp;TEXT('Descriptive Stats'!B9,"0.00%")&amp;", 90th pct: "&amp;TEXT('Descriptive Stats'!B10,"0.00%")&amp;", Max: "&amp;TEXT('Descriptive Stats'!B15,"0.00%")&amp;"."</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <f>"IQR: "&amp;TEXT('Descriptive Stats'!B16,"0.00%")&amp;"; IQR outlier bounds: ["&amp;TEXT('Descriptive Stats'!B17,"0.00%")&amp;", "&amp;TEXT('Descriptive Stats'!B18,"0.00%")&amp;"]."</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
